--- a/TC_OpportunityWorkflow/Main.rvl.xlsx
+++ b/TC_OpportunityWorkflow/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="215">
   <si>
     <t>Flow</t>
   </si>
@@ -650,6 +650,15 @@
   </si>
   <si>
     <t>KillBrowser</t>
+  </si>
+  <si>
+    <t>CrmScrollTo</t>
+  </si>
+  <si>
+    <t>dataId</t>
+  </si>
+  <si>
+    <t>customerneed</t>
   </si>
 </sst>
 </file>
@@ -670,7 +679,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="978">
+  <borders count="979">
     <border>
       <left/>
       <right/>
@@ -1655,11 +1664,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="978">
+  <cellXfs count="979">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2638,6 +2648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="975" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="976" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="977" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="978" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2647,7 +2658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3455,30 +3466,28 @@
       <c r="A47" s="965"/>
     </row>
     <row r="48">
-      <c r="A48" s="871" t="s">
-        <v>7</v>
-      </c>
+      <c r="A48" s="978"/>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="872" t="s">
+      <c r="A49" s="871" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -3488,43 +3497,43 @@
         <v>123</v>
       </c>
       <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="872" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
         <v>23</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>24</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>12</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="873" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="51">
-      <c r="A51" s="874" t="s">
+      <c r="A51" s="873" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
@@ -3534,190 +3543,190 @@
         <v>125</v>
       </c>
       <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="874" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
         <v>23</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>24</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>12</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="875" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="53">
+      <c r="A53" s="875" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>39</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>22</v>
       </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="896"/>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="896"/>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>89</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>93</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>94</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>82</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="950"/>
-    </row>
     <row r="55">
-      <c r="A55" s="940" t="s">
+      <c r="A55" s="950"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="940" t="s">
         <v>174</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="941"/>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="57">
+      <c r="A57" s="941"/>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>42</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>190</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>191</v>
-      </c>
-      <c r="F56" t="s">
-        <v>92</v>
-      </c>
-      <c r="G56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="942"/>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" t="s">
-        <v>192</v>
       </c>
       <c r="F57" t="s">
         <v>92</v>
       </c>
       <c r="G57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="942"/>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="959"/>
-    </row>
     <row r="59">
-      <c r="A59" s="877" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="A59" s="959"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="877" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>110</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>111</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>112</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>75</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="878" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
+    <row r="61">
+      <c r="A61" s="878" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
         <v>122</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>22</v>
       </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="879" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="879" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>128</v>
-      </c>
-      <c r="D61" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" t="s">
-        <v>113</v>
-      </c>
-      <c r="G61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="880" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>162</v>
       </c>
       <c r="D62" t="s">
         <v>111</v>
@@ -3733,60 +3742,60 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="881" t="s">
+      <c r="A63" s="880" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="881" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
         <v>122</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>22</v>
       </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="882" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="882" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" t="s">
-        <v>113</v>
-      </c>
-      <c r="G64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="883" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>163</v>
       </c>
       <c r="D65" t="s">
         <v>111</v>
@@ -3802,76 +3811,76 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="884" t="s">
+      <c r="A66" s="883" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="884" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>122</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>22</v>
       </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="885" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="885" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>131</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>111</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>112</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>113</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="886" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="69">
-      <c r="A69" s="887" t="s">
+      <c r="A69" s="886" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
@@ -3881,189 +3890,212 @@
         <v>164</v>
       </c>
       <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="887" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s">
         <v>23</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>24</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>12</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="888" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+    <row r="71">
+      <c r="A71" s="888" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>132</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>22</v>
       </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="901"/>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="901"/>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>89</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>93</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>94</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>82</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="789" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
+    <row r="73">
+      <c r="A73" s="789" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>56</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>22</v>
       </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="948"/>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="949" t="s">
+      <c r="A74" s="948"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="949" t="s">
         <v>174</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="790" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
+    <row r="76">
+      <c r="A76" s="790" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
         <v>180</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>181</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>79</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>12</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="792" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
+    <row r="77">
+      <c r="A77" s="792" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
         <v>42</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>211</v>
       </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="793"/>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="795"/>
+      <c r="A78" s="793"/>
     </row>
     <row r="79">
-      <c r="A79" s="796"/>
+      <c r="A79" s="795"/>
     </row>
     <row r="80">
-      <c r="A80" s="797"/>
+      <c r="A80" s="796"/>
     </row>
     <row r="81">
-      <c r="A81" s="798"/>
+      <c r="A81" s="797"/>
     </row>
     <row r="82">
-      <c r="A82" s="799"/>
+      <c r="A82" s="798"/>
     </row>
     <row r="83">
-      <c r="A83" s="800"/>
+      <c r="A83" s="799"/>
     </row>
     <row r="84">
-      <c r="A84" s="801"/>
+      <c r="A84" s="800"/>
     </row>
     <row r="85">
-      <c r="A85" s="802"/>
+      <c r="A85" s="801"/>
     </row>
     <row r="86">
-      <c r="A86" s="803"/>
+      <c r="A86" s="802"/>
     </row>
     <row r="87">
-      <c r="A87" s="804"/>
+      <c r="A87" s="803"/>
     </row>
     <row r="88">
-      <c r="A88" s="805"/>
+      <c r="A88" s="804"/>
     </row>
     <row r="89">
-      <c r="A89" s="806"/>
+      <c r="A89" s="805"/>
     </row>
     <row r="90">
-      <c r="A90" s="807"/>
+      <c r="A90" s="806"/>
     </row>
     <row r="91">
-      <c r="A91" s="808"/>
+      <c r="A91" s="807"/>
     </row>
     <row r="92">
-      <c r="A92" s="809"/>
+      <c r="A92" s="808"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="809"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_OpportunityWorkflow/Main.rvl.xlsx
+++ b/TC_OpportunityWorkflow/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="223">
   <si>
     <t>Flow</t>
   </si>
@@ -659,6 +659,30 @@
   </si>
   <si>
     <t>customerneed</t>
+  </si>
+  <si>
+    <t>attempts</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>forceEvent</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30000</t>
   </si>
 </sst>
 </file>
@@ -679,7 +703,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="979">
+  <borders count="996">
     <border>
       <left/>
       <right/>
@@ -1665,11 +1689,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="979">
+  <cellXfs count="996">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2649,6 +2690,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="976" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="977" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="978" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="979" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="980" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="981" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="982" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="983" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="984" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="985" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="986" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="987" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="988" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="989" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="990" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="991" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="992" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="993" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="994" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="995" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2658,7 +2716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H92"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3025,77 +3083,111 @@
       <c r="H22" s="48"/>
     </row>
     <row r="23">
-      <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
+      <c r="A23" s="229"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="229"/>
+      <c r="A24" s="979"/>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="230"/>
+      <c r="A25" s="980"/>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
         <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="951"/>
+      <c r="A26" s="248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="231" t="s">
-        <v>174</v>
+      <c r="A27" s="863" t="s">
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="248" t="s">
+      <c r="A28" s="864" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -3111,14 +3203,14 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="863" t="s">
+      <c r="A29" s="865" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -3130,18 +3222,18 @@
         <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="864" t="s">
+      <c r="A30" s="866" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -3157,60 +3249,60 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="865" t="s">
+      <c r="A31" s="867" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="866" t="s">
+      <c r="A32" s="868" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="867" t="s">
+      <c r="A33" s="869" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -3226,275 +3318,275 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="868" t="s">
+      <c r="A34" s="870" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="869" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="973"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="970" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="968"/>
+      <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="870" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="969"/>
+      <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" t="s">
         <v>12</v>
       </c>
-      <c r="G36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="973"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="970" t="s">
+      <c r="G38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="972"/>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="967" t="s">
         <v>174</v>
       </c>
-      <c r="B38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="968"/>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="961" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="962" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>155</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>156</v>
       </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="969"/>
-      <c r="B40" t="s">
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="963" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="964" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="965"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="978"/>
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="972"/>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" t="s">
-        <v>199</v>
-      </c>
-      <c r="G41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="967" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="961" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="962" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="963" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="964" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="965"/>
+      <c r="A47" s="871" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="978"/>
+      <c r="A48" s="872" t="s">
+        <v>7</v>
+      </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="871" t="s">
+      <c r="A49" s="873" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -3510,14 +3602,14 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="872" t="s">
+      <c r="A50" s="874" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -3529,18 +3621,18 @@
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="873" t="s">
+      <c r="A51" s="875" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -3556,177 +3648,181 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="874" t="s">
-        <v>7</v>
-      </c>
+      <c r="A52" s="896"/>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="875" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="950"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="940" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="941"/>
+      <c r="B55" t="s">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="896"/>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="988"/>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="989"/>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" t="s">
         <v>82</v>
       </c>
-      <c r="G54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="950"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="940" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="941"/>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" t="s">
-        <v>190</v>
-      </c>
-      <c r="E57" t="s">
-        <v>191</v>
-      </c>
-      <c r="F57" t="s">
-        <v>92</v>
-      </c>
       <c r="G57" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="942"/>
+      <c r="A58" s="990"/>
       <c r="B58" t="s">
         <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="877" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="959"/>
+      <c r="D59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="877" t="s">
+      <c r="A60" s="878" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="878" t="s">
+      <c r="A61" s="879" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G61" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="879" t="s">
+      <c r="A62" s="880" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="D62" t="s">
         <v>111</v>
@@ -3742,60 +3838,60 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="880" t="s">
+      <c r="A63" s="881" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="881" t="s">
+      <c r="A64" s="882" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G64" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="882" t="s">
+      <c r="A65" s="883" t="s">
         <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
         <v>111</v>
@@ -3811,76 +3907,76 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="883" t="s">
+      <c r="A66" s="884" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="884" t="s">
+      <c r="A67" s="885" t="s">
         <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="885" t="s">
+      <c r="A68" s="886" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="886" t="s">
+      <c r="A69" s="887" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
@@ -3890,212 +3986,189 @@
         <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="887" t="s">
+      <c r="A70" s="888" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="888" t="s">
-        <v>7</v>
-      </c>
+      <c r="A71" s="901"/>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="901"/>
+      <c r="A72" s="789" t="s">
+        <v>7</v>
+      </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="789" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" s="948"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="949" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="790" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
         <v>3</v>
       </c>
-      <c r="C73" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="948"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="949" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="790" t="s">
+      <c r="A76" s="792" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="792" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" t="s">
-        <v>211</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
-        <v>7</v>
-      </c>
+      <c r="A77" s="793"/>
     </row>
     <row r="78">
-      <c r="A78" s="793"/>
+      <c r="A78" s="795"/>
     </row>
     <row r="79">
-      <c r="A79" s="795"/>
+      <c r="A79" s="796"/>
     </row>
     <row r="80">
-      <c r="A80" s="796"/>
+      <c r="A80" s="797"/>
     </row>
     <row r="81">
-      <c r="A81" s="797"/>
+      <c r="A81" s="798"/>
     </row>
     <row r="82">
-      <c r="A82" s="798"/>
+      <c r="A82" s="799"/>
     </row>
     <row r="83">
-      <c r="A83" s="799"/>
+      <c r="A83" s="800"/>
     </row>
     <row r="84">
-      <c r="A84" s="800"/>
+      <c r="A84" s="801"/>
     </row>
     <row r="85">
-      <c r="A85" s="801"/>
+      <c r="A85" s="802"/>
     </row>
     <row r="86">
-      <c r="A86" s="802"/>
+      <c r="A86" s="803"/>
     </row>
     <row r="87">
-      <c r="A87" s="803"/>
+      <c r="A87" s="804"/>
     </row>
     <row r="88">
-      <c r="A88" s="804"/>
+      <c r="A88" s="805"/>
     </row>
     <row r="89">
-      <c r="A89" s="805"/>
+      <c r="A89" s="806"/>
     </row>
     <row r="90">
-      <c r="A90" s="806"/>
+      <c r="A90" s="807"/>
     </row>
     <row r="91">
-      <c r="A91" s="807"/>
+      <c r="A91" s="808"/>
     </row>
     <row r="92">
-      <c r="A92" s="808"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="809"/>
+      <c r="A92" s="809"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_OpportunityWorkflow/Main.rvl.xlsx
+++ b/TC_OpportunityWorkflow/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="224">
   <si>
     <t>Flow</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>30000</t>
+  </si>
+  <si>
+    <t>OverflowButton</t>
   </si>
 </sst>
 </file>
@@ -4231,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>

--- a/TC_OpportunityWorkflow/Main.rvl.xlsx
+++ b/TC_OpportunityWorkflow/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="224">
   <si>
     <t>Flow</t>
   </si>
@@ -706,7 +706,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="996">
+  <borders count="1002">
     <border>
       <left/>
       <right/>
@@ -1709,11 +1709,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="996">
+  <cellXfs count="1002">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2710,6 +2716,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="993" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="994" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="995" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="996" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="997" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="998" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="999" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1000" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1001" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2719,7 +2731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H90"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3183,43 +3195,33 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="864" t="s">
-        <v>7</v>
-      </c>
+      <c r="A28" s="996"/>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
         <v>146</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="865" t="s">
-        <v>7</v>
-      </c>
+      <c r="A29" s="997"/>
       <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -3229,321 +3231,311 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="866" t="s">
-        <v>7</v>
-      </c>
+      <c r="A30" s="999"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="867" t="s">
-        <v>7</v>
-      </c>
+      <c r="A31" s="1000"/>
       <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s">
         <v>148</v>
       </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="868" t="s">
+      <c r="A32" s="870" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
         <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="869" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="973"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="970" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="968"/>
+      <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="870" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="969"/>
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" t="s">
         <v>12</v>
       </c>
-      <c r="G34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="973"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="970" t="s">
+      <c r="G36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="972"/>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="967" t="s">
         <v>174</v>
       </c>
-      <c r="B36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="968"/>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="961" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="962" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
         <v>155</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
         <v>156</v>
       </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="969"/>
-      <c r="B38" t="s">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="963" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="964" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="965"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="978"/>
+      <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="972"/>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="967" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="961" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="962" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="963" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="964" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="965"/>
+      <c r="A45" s="871" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="978"/>
+      <c r="A46" s="872" t="s">
+        <v>7</v>
+      </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="871" t="s">
+      <c r="A47" s="873" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -3559,14 +3551,14 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="872" t="s">
+      <c r="A48" s="874" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -3578,18 +3570,18 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="873" t="s">
+      <c r="A49" s="875" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -3605,158 +3597,158 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="874" t="s">
-        <v>7</v>
-      </c>
+      <c r="A50" s="896"/>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="875" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="950"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="940" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="941"/>
+      <c r="B53" t="s">
         <v>3</v>
       </c>
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="896"/>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="988"/>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="989"/>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" t="s">
         <v>82</v>
       </c>
-      <c r="G52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="950"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="940" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="941"/>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" t="s">
-        <v>191</v>
-      </c>
-      <c r="F55" t="s">
-        <v>92</v>
-      </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="988"/>
+      <c r="A56" s="990"/>
       <c r="B56" t="s">
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="877" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="989"/>
-      <c r="B57" t="s">
-        <v>50</v>
+      <c r="D57" t="s">
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="990"/>
+      <c r="A58" s="878" t="s">
+        <v>7</v>
+      </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="877" t="s">
+      <c r="A59" s="879" t="s">
         <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
         <v>111</v>
@@ -3765,67 +3757,67 @@
         <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="G59" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="878" t="s">
+      <c r="A60" s="880" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G60" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="879" t="s">
+      <c r="A61" s="881" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="880" t="s">
+      <c r="A62" s="882" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
         <v>111</v>
@@ -3841,60 +3833,60 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="881" t="s">
+      <c r="A63" s="883" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="882" t="s">
+      <c r="A64" s="884" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="883" t="s">
+      <c r="A65" s="885" t="s">
         <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
         <v>111</v>
@@ -3910,14 +3902,14 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="884" t="s">
+      <c r="A66" s="886" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -3933,37 +3925,37 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="885" t="s">
+      <c r="A67" s="887" t="s">
         <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="886" t="s">
+      <c r="A68" s="888" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -3979,37 +3971,35 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="887" t="s">
-        <v>7</v>
-      </c>
+      <c r="A69" s="901"/>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="888" t="s">
+      <c r="A70" s="789" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
@@ -4025,153 +4015,109 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="901"/>
-      <c r="B71" t="s">
+      <c r="A71" s="948"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="949" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="790" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
         <v>3</v>
       </c>
-      <c r="C71" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" t="s">
-        <v>93</v>
-      </c>
-      <c r="E71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="789" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="792" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
         <v>3</v>
       </c>
-      <c r="C72" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="948"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="949" t="s">
-        <v>174</v>
-      </c>
-      <c r="B74" t="s">
-        <v>182</v>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="790" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>182</v>
-      </c>
+      <c r="A75" s="793"/>
     </row>
     <row r="76">
-      <c r="A76" s="792" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" t="s">
-        <v>211</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" t="s">
-        <v>7</v>
-      </c>
+      <c r="A76" s="795"/>
     </row>
     <row r="77">
-      <c r="A77" s="793"/>
+      <c r="A77" s="796"/>
     </row>
     <row r="78">
-      <c r="A78" s="795"/>
+      <c r="A78" s="797"/>
     </row>
     <row r="79">
-      <c r="A79" s="796"/>
+      <c r="A79" s="798"/>
     </row>
     <row r="80">
-      <c r="A80" s="797"/>
+      <c r="A80" s="799"/>
     </row>
     <row r="81">
-      <c r="A81" s="798"/>
+      <c r="A81" s="800"/>
     </row>
     <row r="82">
-      <c r="A82" s="799"/>
+      <c r="A82" s="801"/>
     </row>
     <row r="83">
-      <c r="A83" s="800"/>
+      <c r="A83" s="802"/>
     </row>
     <row r="84">
-      <c r="A84" s="801"/>
+      <c r="A84" s="803"/>
     </row>
     <row r="85">
-      <c r="A85" s="802"/>
+      <c r="A85" s="804"/>
     </row>
     <row r="86">
-      <c r="A86" s="803"/>
+      <c r="A86" s="805"/>
     </row>
     <row r="87">
-      <c r="A87" s="804"/>
+      <c r="A87" s="806"/>
     </row>
     <row r="88">
-      <c r="A88" s="805"/>
+      <c r="A88" s="807"/>
     </row>
     <row r="89">
-      <c r="A89" s="806"/>
+      <c r="A89" s="808"/>
     </row>
     <row r="90">
-      <c r="A90" s="807"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="808"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="809"/>
+      <c r="A90" s="809"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_OpportunityWorkflow/Main.rvl.xlsx
+++ b/TC_OpportunityWorkflow/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="231">
   <si>
     <t>Flow</t>
   </si>
@@ -686,6 +686,27 @@
   </si>
   <si>
     <t>OverflowButton</t>
+  </si>
+  <si>
+    <t>Crm</t>
+  </si>
+  <si>
+    <t>LaunchSales</t>
+  </si>
+  <si>
+    <t>ChangeArea</t>
+  </si>
+  <si>
+    <t>OpenEntity</t>
+  </si>
+  <si>
+    <t>ClickButton</t>
+  </si>
+  <si>
+    <t>LookupField</t>
+  </si>
+  <si>
+    <t>ScrollTo</t>
   </si>
 </sst>
 </file>
@@ -706,7 +727,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1002">
+  <borders count="1026">
     <border>
       <left/>
       <right/>
@@ -1715,11 +1736,35 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1002">
+  <cellXfs count="1026">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2722,6 +2767,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="999" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1000" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1001" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1002" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1003" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1004" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1005" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1006" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1007" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1008" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1009" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1010" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1011" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1012" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1013" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1014" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1015" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1016" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1017" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1018" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1019" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1020" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1021" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1022" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1023" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1024" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1025" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2731,7 +2800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H86"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2903,526 +2972,536 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="224"/>
+      <c r="A12" s="221" t="s">
+        <v>72</v>
+      </c>
       <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="222"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="960"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="229"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="979"/>
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" t="s">
         <v>82</v>
       </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="225"/>
-      <c r="B13" t="s">
+      <c r="G20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="980"/>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="226"/>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="227"/>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="221" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="222"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="960"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
         <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="48"/>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="229"/>
+      <c r="A23" s="863" t="s">
+        <v>7</v>
+      </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="996"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="979"/>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" t="s">
-        <v>82</v>
-      </c>
       <c r="G24" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="980"/>
+      <c r="A25" s="1017"/>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="248" t="s">
-        <v>7</v>
-      </c>
+      <c r="A26" s="999"/>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="863" t="s">
-        <v>7</v>
-      </c>
+      <c r="A27" s="1021"/>
       <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="996"/>
+      <c r="A28" s="870" t="s">
+        <v>7</v>
+      </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="997"/>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s">
-        <v>146</v>
-      </c>
+      <c r="A29" s="973"/>
     </row>
     <row r="30">
-      <c r="A30" s="999"/>
+      <c r="A30" s="970" t="s">
+        <v>174</v>
+      </c>
       <c r="B30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="968"/>
+      <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1000"/>
-      <c r="B31" t="s">
-        <v>50</v>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="870" t="s">
-        <v>7</v>
-      </c>
+      <c r="A32" s="969"/>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="973"/>
+      <c r="A33" s="972"/>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="970" t="s">
+      <c r="A34" s="967" t="s">
         <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="968"/>
+      <c r="A35" s="961" t="s">
+        <v>7</v>
+      </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="969"/>
+      <c r="A36" s="962" t="s">
+        <v>7</v>
+      </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="963" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="964" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" t="s">
         <v>12</v>
       </c>
-      <c r="G36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="972"/>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="967" t="s">
-        <v>174</v>
-      </c>
-      <c r="B38" t="s">
-        <v>202</v>
+      <c r="G38" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="961" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>154</v>
-      </c>
+      <c r="A39" s="965"/>
     </row>
     <row r="40">
-      <c r="A40" s="962" t="s">
-        <v>7</v>
-      </c>
+      <c r="A40" s="978"/>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="963" t="s">
+      <c r="A41" s="871" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -3435,61 +3514,83 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="964" t="s">
+      <c r="A42" s="872" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="965"/>
+      <c r="A43" s="873" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="978"/>
+      <c r="A44" s="874" t="s">
+        <v>7</v>
+      </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="871" t="s">
+      <c r="A45" s="875" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -3505,250 +3606,250 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="872" t="s">
-        <v>7</v>
-      </c>
+      <c r="A46" s="896"/>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="873" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" t="s">
-        <v>7</v>
-      </c>
+      <c r="A47" s="950"/>
     </row>
     <row r="48">
-      <c r="A48" s="874" t="s">
-        <v>7</v>
+      <c r="A48" s="940" t="s">
+        <v>174</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="875" t="s">
-        <v>7</v>
-      </c>
+      <c r="A49" s="941"/>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="896"/>
+      <c r="A50" s="988"/>
       <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="F50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="989"/>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" t="s">
         <v>82</v>
       </c>
-      <c r="G50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="950"/>
+      <c r="G51" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="940" t="s">
-        <v>174</v>
-      </c>
+      <c r="A52" s="990"/>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="941"/>
+      <c r="A53" s="877" t="s">
+        <v>7</v>
+      </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="988"/>
+      <c r="A54" s="878" t="s">
+        <v>7</v>
+      </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="989"/>
+      <c r="A55" s="879" t="s">
+        <v>7</v>
+      </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="G55" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="990"/>
+      <c r="A56" s="880" t="s">
+        <v>7</v>
+      </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="G56" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="877" t="s">
+      <c r="A57" s="881" t="s">
         <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="878" t="s">
+      <c r="A58" s="882" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G58" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="879" t="s">
+      <c r="A59" s="883" t="s">
         <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
         <v>111</v>
@@ -3764,106 +3865,106 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="880" t="s">
+      <c r="A60" s="884" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="881" t="s">
+      <c r="A61" s="885" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G61" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="882" t="s">
+      <c r="A62" s="886" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="883" t="s">
+      <c r="A63" s="887" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="884" t="s">
+      <c r="A64" s="888" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -3879,37 +3980,35 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="885" t="s">
-        <v>7</v>
-      </c>
+      <c r="A65" s="901"/>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="886" t="s">
+      <c r="A66" s="789" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -3925,84 +4024,51 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="887" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>193</v>
-      </c>
+      <c r="A67" s="948"/>
     </row>
     <row r="68">
-      <c r="A68" s="888" t="s">
-        <v>7</v>
+      <c r="A68" s="949" t="s">
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="901"/>
+      <c r="A69" s="790" t="s">
+        <v>7</v>
+      </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="789" t="s">
+      <c r="A70" s="792" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
@@ -4015,109 +4081,52 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="948"/>
+      <c r="A71" s="793"/>
     </row>
     <row r="72">
-      <c r="A72" s="949" t="s">
-        <v>174</v>
-      </c>
-      <c r="B72" t="s">
-        <v>182</v>
-      </c>
+      <c r="A72" s="795"/>
     </row>
     <row r="73">
-      <c r="A73" s="790" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>180</v>
-      </c>
-      <c r="D73" t="s">
-        <v>181</v>
-      </c>
-      <c r="E73" t="s">
-        <v>79</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>182</v>
-      </c>
+      <c r="A73" s="796"/>
     </row>
     <row r="74">
-      <c r="A74" s="792" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" t="s">
-        <v>211</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" t="s">
-        <v>7</v>
-      </c>
+      <c r="A74" s="797"/>
     </row>
     <row r="75">
-      <c r="A75" s="793"/>
+      <c r="A75" s="798"/>
     </row>
     <row r="76">
-      <c r="A76" s="795"/>
+      <c r="A76" s="799"/>
     </row>
     <row r="77">
-      <c r="A77" s="796"/>
+      <c r="A77" s="800"/>
     </row>
     <row r="78">
-      <c r="A78" s="797"/>
+      <c r="A78" s="801"/>
     </row>
     <row r="79">
-      <c r="A79" s="798"/>
+      <c r="A79" s="802"/>
     </row>
     <row r="80">
-      <c r="A80" s="799"/>
+      <c r="A80" s="803"/>
     </row>
     <row r="81">
-      <c r="A81" s="800"/>
+      <c r="A81" s="804"/>
     </row>
     <row r="82">
-      <c r="A82" s="801"/>
+      <c r="A82" s="805"/>
     </row>
     <row r="83">
-      <c r="A83" s="802"/>
+      <c r="A83" s="806"/>
     </row>
     <row r="84">
-      <c r="A84" s="803"/>
+      <c r="A84" s="807"/>
     </row>
     <row r="85">
-      <c r="A85" s="804"/>
+      <c r="A85" s="808"/>
     </row>
     <row r="86">
-      <c r="A86" s="805"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="806"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="807"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="808"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="809"/>
+      <c r="A86" s="809"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_OpportunityWorkflow/Main.rvl.xlsx
+++ b/TC_OpportunityWorkflow/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="232">
   <si>
     <t>Flow</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>ScrollTo</t>
+  </si>
+  <si>
+    <t>60000</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1026">
+  <borders count="1031">
     <border>
       <left/>
       <right/>
@@ -1760,11 +1763,16 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1026">
+  <cellXfs count="1031">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2791,6 +2799,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1023" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1024" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1025" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1026" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1027" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1028" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1029" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1030" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2800,7 +2813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H85"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3020,69 +3033,69 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="1028"/>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34" t="s">
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C17" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D17" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G17" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="960"/>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" t="s">
-        <v>96</v>
-      </c>
+      <c r="H17" s="40"/>
     </row>
     <row r="18">
       <c r="A18" s="41"/>
@@ -4058,75 +4071,52 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="792" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" t="s">
-        <v>211</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" t="s">
-        <v>7</v>
-      </c>
+      <c r="A70" s="793"/>
     </row>
     <row r="71">
-      <c r="A71" s="793"/>
+      <c r="A71" s="795"/>
     </row>
     <row r="72">
-      <c r="A72" s="795"/>
+      <c r="A72" s="796"/>
     </row>
     <row r="73">
-      <c r="A73" s="796"/>
+      <c r="A73" s="797"/>
     </row>
     <row r="74">
-      <c r="A74" s="797"/>
+      <c r="A74" s="798"/>
     </row>
     <row r="75">
-      <c r="A75" s="798"/>
+      <c r="A75" s="799"/>
     </row>
     <row r="76">
-      <c r="A76" s="799"/>
+      <c r="A76" s="800"/>
     </row>
     <row r="77">
-      <c r="A77" s="800"/>
+      <c r="A77" s="801"/>
     </row>
     <row r="78">
-      <c r="A78" s="801"/>
+      <c r="A78" s="802"/>
     </row>
     <row r="79">
-      <c r="A79" s="802"/>
+      <c r="A79" s="803"/>
     </row>
     <row r="80">
-      <c r="A80" s="803"/>
+      <c r="A80" s="804"/>
     </row>
     <row r="81">
-      <c r="A81" s="804"/>
+      <c r="A81" s="805"/>
     </row>
     <row r="82">
-      <c r="A82" s="805"/>
+      <c r="A82" s="806"/>
     </row>
     <row r="83">
-      <c r="A83" s="806"/>
+      <c r="A83" s="807"/>
     </row>
     <row r="84">
-      <c r="A84" s="807"/>
+      <c r="A84" s="808"/>
     </row>
     <row r="85">
-      <c r="A85" s="808"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="809"/>
+      <c r="A85" s="809"/>
     </row>
   </sheetData>
 </worksheet>
